--- a/biology/Botanique/Galanthus/Galanthus.xlsx
+++ b/biology/Botanique/Galanthus/Galanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galanthus est un genre de plantes herbacées vivaces à bulbe. Il appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique le place dans la famille des Amaryllidaceae.
-C'est un genre originaire d'Eurasie, dont on connaît actuellement 20 espèces. L'espèce que l'on rencontre couramment en France est Galanthus nivalis. Une 20e espèce, Galanthus panjutinii, a été récemment identifiée en Transcaucasie occidentale[2].
+C'est un genre originaire d'Eurasie, dont on connaît actuellement 20 espèces. L'espèce que l'on rencontre couramment en France est Galanthus nivalis. Une 20e espèce, Galanthus panjutinii, a été récemment identifiée en Transcaucasie occidentale.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Aire générale de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Galanthus est un genre principalement nord-est-méditerranéen et de la mer Noire.
 G. nivalis croît des rives occidentales de la Mer Noire jusqu’aux Pyrénées, étant la plus occidentale, mais aussi la plus septentrionale. Elle possède ainsi la plus vaste aire de répartition.
 Une majorité d’espèces est originaire du Caucase : G. alpinus, G. angustifolius, G. krasnovii, G. lagodechianus, G. platyphyllus, G. rizehensis, G. woronowii et G. transcaucasicus. Cette dernière s’étendant à l’est jusqu’au sud-est de la mer Caspienne en Iran, limite orientale du genre.
 Bon nombre d’autres espèces poussent plus au sud, en Turquie : G. koenenianus au nord, G. trojanus au nord-ouest, G. cilicicus et G. peshmenii au sud. G. fosteri se rencontre depuis le nord de la Turquie jusqu’au Liban et peut-être en Israël.
 Certaines espèces s’étendent en Turquie, dans les Balkans et la Crimée : G. elwesi, G. gracilis et G. plicatus.
-G. ikariae est limitée aux îles de la mer Égée. G. reginae-olgae se rencontre du Péloponnèse au sud de la Bosnie ainsi qu’en Sicile[3].
+G. ikariae est limitée aux îles de la mer Égée. G. reginae-olgae se rencontre du Péloponnèse au sud de la Bosnie ainsi qu’en Sicile.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur, solitaire, sortant d'une spathe membraneuse, possède six tépales libres inégaux, formant une cloche :
 trois tépales extérieurs blancs, obovales à oblongs, arrondis au sommet
@@ -584,7 +600,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes vivaces, passant la partie de l'année qui leur est défavorable sous forme de bulbe souterrain (ce sont donc des géophytes), qui atteignent 15 à 25 cm de haut. Ce sont des plantes de demi-ombre, affectionnant les sols riches en bases et en azote (mull).
 Galanthus nivalis est en fleur en février-mars. Deux espèces (Galanthus reginae-olgae et Galanthus peshmenii) fleurissent en automne. Certains clones de Galanthus elwesii fleurissent dès les mois de décembre, d'autres sont encore en fleurs au début du mois d'avril.
@@ -617,9 +635,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Galanthus vient du grec galaktos, « lait », et anthos, « fleur », en référence aux fleurs blanches[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Galanthus vient du grec galaktos, « lait », et anthos, « fleur », en référence aux fleurs blanches.
 </t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces sont appelées Perce-neige, Goutte de lait, clochette d'hiver, galanthine, galant d'hiver, galanthe des neiges ...
 </t>
@@ -679,7 +701,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bulbe cru a des propriétés vomitives.
 Dans les Balkans et en Asie Mineure la perce-neige était utilisée comme plante médicinale.
@@ -714,19 +738,129 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Classification proposée par A.P. Davis[5].
-Série Galanthus
-Galanthus nivalis L., l'espèce la plus répandue, depuis les Pyrénées jusqu'en Ukraine, surtout en Europe centrale. Au Nord de Paris, ainsi qu'en Angleterre, en Belgique, aux Pays-Bas et en Suède, elle n’est pas indigène, mais y est naturalisée çà et là ("stinzenplant")[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classification proposée par A.P. Davis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Galanthus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galanthus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Galanthus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Galanthus nivalis L., l'espèce la plus répandue, depuis les Pyrénées jusqu'en Ukraine, surtout en Europe centrale. Au Nord de Paris, ainsi qu'en Angleterre, en Belgique, aux Pays-Bas et en Suède, elle n’est pas indigène, mais y est naturalisée çà et là ("stinzenplant").
 Galanthus reginae-olgae Orph., de Grèce et de Sicile, à floraison automnale. Les feuilles, qui apparaissent après la floraison, ont à leur face supérieure une large bande longitudinale de couleur blanche (une adaptation contre la sécheresse du climat méditerranéen).
 La sous-espèce vernalis Kamari est à floraison hivernale parmi des feuilles déjà bien développées.
-Galanthus plicatus M. Bieb., espèce robuste de Crimée, de Roumanie et autour du Bosphore, à feuilles repliées vers l'arrière, avec une ou deux marques - sous-espèce byzantinus (Baker) D.A. Webb - sur les tépales intérieurs
-Série Latifolii
-(à larges feuilles)
+Galanthus plicatus M. Bieb., espèce robuste de Crimée, de Roumanie et autour du Bosphore, à feuilles repliées vers l'arrière, avec une ou deux marques - sous-espèce byzantinus (Baker) D.A. Webb - sur les tépales intérieurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Galanthus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galanthus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Latifolii</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(à larges feuilles)
 Trois de ces espèces se rencontrent dans le Sud-Est de l'Europe : Galanthus gracilis,  Galanthus elwesii et Galanthus ikariae (Cyclades). Les treize autres sont indigènes dans le Caucase, en Turquie et en Transcaucasie.
-Sous-série Glaucaefolii
-(à feuilles glauques)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Galanthus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galanthus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Latifolii</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sous-série Glaucaefolii</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(à feuilles glauques)
 Galanthus alpinus Sosn., originaire du Caucase. À ne pas confondre avec les exemplaires à une seule marque apicale de Galanthus elwesii !
 Var. bortkewitschianus (Koss) A.P. Davis est un triploïde stérile.
 Galanthus angustifolius Koss, espèce à feuilles très étroites du Caucase
@@ -734,9 +868,47 @@
 Galanthus elwesii Hook. f., espèce robuste à larges feuilles des Balkans et de Turquie ; les tépales intérieurs ont typiquement deux marques (basale et apicale) parfois réunies en X. Les exemplaires qui n'ont qu'une seule marque apicale (var. monostictus P.D. Sell), ont été jadis rattachés abusivement à Galanthus caucasicus (ancien nom de Galanthus alpinus).
 Galanthus gracilis Celak, à distribution similaire à Galanthus elwesii ; s'en distingue par ses feuilles plus étroites, à extrémité contournée
 Galanthus koenenianus Lobin, Brickell &amp; Davis, espèce rare du Nord-Est de la Turquie ; feuilles à nervures saillantes à la face inférieure
-Galanthus peshmenii Davis &amp; Brickell, endémique du Sud de la Turquie et d'une île grecque adjacente, à floraison automnale ; les feuilles très étroites apparaissent après la fleur.
-Sous-série Viridifolii
-(à feuilles vertes)
+Galanthus peshmenii Davis &amp; Brickell, endémique du Sud de la Turquie et d'une île grecque adjacente, à floraison automnale ; les feuilles très étroites apparaissent après la fleur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Galanthus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galanthus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Latifolii</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sous-série Viridifolii</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(à feuilles vertes)
 Galanthus fosteri Baker, espèce d'Asie Mineure ; les tépales intérieurs ont deux marques (basale et apicale)
 Galanthus ikariae Baker, espèce endémique de quelques îles grecques
 Galanthus lagodechianus Kem.-Nath., intermédiaire géographiquement et morphologiquement entre G. rizehensis et G. transcaucasicus
@@ -745,13 +917,81 @@
 Galanthus platyphyllus Traub &amp; Moldenke, espèce à large feuilles du Caucase
 Galanthus rizehensis Stern, du pourtour Est de la Mer Noire, à feuilles assez étroites
 Galanthus transcaucasicus Fomin, de Transcaucasie et du Nord de l'Iran
-Galanthus woronowii Losinsk., espèce souvent cultivée, originaire du pourtour Est de la Mer Noire, jadis confondue avec Galanthus ikariae ; les feuilles sont repliées vers l'avant
-Affinité incertaine
-Galanthus trojanus A.P.Davis &amp; Ozhatay, la nouvelle espèce découverte par Davis en 2000
+Galanthus woronowii Losinsk., espèce souvent cultivée, originaire du pourtour Est de la Mer Noire, jadis confondue avec Galanthus ikariae ; les feuilles sont repliées vers l'avant</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Galanthus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galanthus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Affinité incertaine</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Galanthus trojanus A.P.Davis &amp; Ozhatay, la nouvelle espèce découverte par Davis en 2000
 Galanthus ×allenii Baker, un hybride d'origine obscure (?G. alpinus × G. woronowii) découvert dans un lot de perce-neige en provenance de Turquie
-Galanthus ×grandiflorus Baker, un autre hybride d'origine incertaine (peut-être G. elwesii × G. plicatus)
-Liste des espèces et hybrides répertoriés
-Selon World Checklist of Selected Plant Families (WCSP)  (5 mars 2019)[7] :
+Galanthus ×grandiflorus Baker, un autre hybride d'origine incertaine (peut-être G. elwesii × G. plicatus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Galanthus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galanthus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Les espèces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Liste des espèces et hybrides répertoriés</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (5 mars 2019) :
 Galanthus × allenii Baker, Gard. Chron., ser. 3 (1891)
 Galanthus alpinus Sosn. (1911)
 Galanthus angustifolius Koss (1951)
@@ -777,7 +1017,7 @@
 Galanthus × valentinei nothosubsp. subplicatus (Zeybek) A.P.Davis (2001)
 Galanthus × valentinei nothosubsp. valentinei
 Galanthus woronowii Losinsk. (1935)
-Selon Tropicos                                           (5 mars 2019)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Galanthus alexandri Porcius
 Galanthus alpinus Sosn.
 Galanthus angustifolius G. Koss
@@ -834,31 +1074,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Galanthus</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Galanthus</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Galanthus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galanthus</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Photos de quelques espèces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Galanthus angustifolius
